--- a/01_data/SUBSET_PHQ.xlsx
+++ b/01_data/SUBSET_PHQ.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t xml:space="preserve">Study</t>
   </si>
@@ -368,58 +368,139 @@
     <t xml:space="preserve">Sundquist J., Lilja A., Palmer K., Memon A.A., Wang X., Johansson L.M., und Sundquist K. „Mindfulness group therapy in primary care patients with depression, anxiety and stress and adjustment disorders: Randomised controlled trial“. British Journal of Psychiatry 206, Nr. 2 (2015): 128–35. https://doi.org/10.1192/bjp.bp.114.150243.</t>
   </si>
   <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sajobi T.T., Jette N., Fiest K.M., Patten S.B., Engbers J.D.T., Lowerison M.W., und Wiebe S. „Correlates of disability related to seizures in persons with epilepsy“. Epilepsia 56, Nr. 9 (2015): 1463–69. https://doi.org/10.1111/epi.13102.</t>
   </si>
   <si>
+    <t xml:space="preserve">241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weber T., Eberle J., Messelhauser U., Schiffmann L., Nies C., Schabram J., Zielke A., u. a. „Parathyroidectomy, elevated depression scores, and suicidal ideation in patients with primary hyperparathyroidism: Results of a prospective multicenter study“. JAMA Surgery 148, Nr. 2 (2013): 109–15. https://doi.org/10.1001/2013.jamasurg.316.</t>
   </si>
   <si>
+    <t xml:space="preserve">194</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fischer H.F., Klug C., Roeper K., Blozik E., Edelmann F., Eisele M., Stork S., u. a. „Screening for mental disorders in heart failure patients using computer-adaptive tests“. Quality of life research : an international journal of quality of life aspects of treatment, care and rehabilitation 23, Nr. 5 (2014): 1609–18. n.</t>
   </si>
   <si>
     <t xml:space="preserve">Hoerger M., Greer J.A., Jackson V.A., Park E.R., Pirl W.F., El-Jawahri A., Gallagher E.R., u. a. „Defining the elements of early palliative care that are associated with patient-reported outcomes and the delivery of end-of-life care“. Journal of Clinical Oncology 36, Nr. 11 (2018): 1096–1102. https://doi.org/10.1200/JCO.2017.75.6676.</t>
   </si>
   <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
     <t xml:space="preserve">Geraghty A.W.A., Stuart B., Terluin B., Kendrick T., Little P., und Moore M. „Distinguishing between emotional distress and psychiatric disorder in primary care attenders: A cross sectional study of the four-dimensional symptom questionnaire (4DSQ)“. Journal of Affective Disorders 184, Nr. (Geraghty, Stuart, Kendrick, Little, Moore) Primary Care and Population Sciences, Aldermoor Health Centre, University of Southampton, Aldermoor Close, Southampton, Hampshire SO16 5ST, United Kingdom (2015): 198–204. https://doi.org/10.1016/j.jad.2015.05.064.</t>
   </si>
   <si>
+    <t xml:space="preserve">487</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chung J., Ju G., Yang J., Jeong J., Jeong Y., Choi M.K., Kwon J., Lee K.H., Kim S.T., und Han H.S. „Prevalence of and factors associated with anxiety and depression in Korean patients with newly diagnosed advanced gastrointestinal cancer“. Korean Journal of Internal Medicine 33, Nr. 3 (2018): 585–94. https://doi.org/10.3904/kjim.2016.108.</t>
   </si>
   <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
     <t xml:space="preserve">De Fazio P., Cerminara G., Ruberto S., Caroleo M., Puca M., Rania O., Suffredini E., Procopio L., und Segura-Garcia C. „Hospitalization and other risk factors for depressive and anxious symptoms in oncological and non-oncological patients“. Psycho-Oncology 26, Nr. 4 (2017): 493–99. https://doi.org/10.1002/pon.4170.</t>
   </si>
   <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chung S., Kang S.-H., Kweon K., Youn S., Kang H.S., Hong S.-B., und Hong S.-J. „Cognitive emotion regulation strategies and insomnia or other psychiatric Symptoms among humidifier disinfectant victims“. Sleep Medicine Research 9, Nr. 1 (2018): 26–31. https://doi.org/10.17241/smr.2018.00136.</t>
   </si>
   <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hansson M., Chotai J., Nordstom A., und Bodlund O. „Comparison of two self-rating scales to detect depression: HADS and PHQ-9“. British Journal of General Practice 59, Nr. 566 (2009): 650–54. https://doi.org/10.3399/bjgp09X454070.</t>
   </si>
   <si>
+    <t xml:space="preserve">737</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okuda T., Asano K., Numata N., Hirano Y., Yamamoto T., Tanaka M., Matsuzawa D., Shimizu E., Iyo M., und Nakazato M. „Feasibility of cognitive remediation therapy for adults with autism spectrum disorders: A single-group pilot study“. Neuropsychiatric Disease and Treatment 13, Nr. (Okuda, Asano, Hirano, Shimizu, Nakazato) Division of Cognitive Behavioral Science, United Graduate School of Child Development, Osaka University, Kanazawa University, Hamamatsu University School of Medicine, Chiba University and University of Fukui, Chiba-shi, Chiba, Japan (2017): 2185–91. https://doi.org/10.2147/NDT.S141555.</t>
   </si>
   <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nanni M.G., Caruso R., Travado L., Ventura C., Palma A., Berardi A.M., Meggiolaro E., u. a. „Relationship of demoralization with anxiety, depression, and quality of life: A Southern European study of Italian and Portuguese cancer patients“. Psycho-Oncology 27, Nr. 11 (2018): 2616–22. https://doi.org/10.1002/pon.4824.</t>
   </si>
   <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haddad M., Walters P., Phillips R., Tsakok J., Williams P., Mann A., und Tylee A. „Detecting Depression in Patients with Coronary Heart Disease: A Diagnostic Evaluation of the PHQ-9 and HADS-D in Primary Care, Findings From the UPBEAT-UK Study“. PLoS ONE 8, Nr. 10 (2013): e78493. https://doi.org/10.1371/journal.pone.0078493.</t>
   </si>
   <si>
+    <t xml:space="preserve">698</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ma H., Wang Y., Xue Y., Huang D., Kong Y., Zhao X., und Zhang M. „The effect of Xinkeshu tablets on depression and anxiety symptoms in patients with coronary artery disease: Results from a double-blind, randomized, placebo-controlled study“. Biomedicine and Pharmacotherapy 112, Nr. (Ma, Wang) Guangdong Cardiovascular Institute, Guangdong Provincial People’s Hospital, Guangdong Academy of Medical Sciences, Guangdong, China (2019): 108639. https://doi.org/10.1016/j.biopha.2019.108639.</t>
   </si>
   <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
     <t xml:space="preserve">———. „Psychometric comparison of PHQ-9 and HADS for measuring depression severity in primary care“. British Journal of General Practice 58, Nr. 546 (2008): 32–36. https://doi.org/10.3399/bjgp08X263794.</t>
   </si>
   <si>
+    <t xml:space="preserve">544</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sajobi T.T., Amoozegar F., Wang M., Wiebe N., Fiest K.M., Patten S.B., und Jette N. „Global assessment of migraine severity measure: Preliminary evidence of construct validity“. BMC Neurology 19, Nr. 1 (2019): 53. https://doi.org/10.1186/s12883-019-1284-8.</t>
   </si>
   <si>
+    <t xml:space="preserve">263</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schaeffeler N., Pfeiffer K., Ringwald J., Brucker S., Wallwiener M., Zipfel S., und Teufel M. „Assessing the need for psychooncological support: Screening instruments in combination with patients’ subjective evaluation may define psychooncological pathways“. Psycho-Oncology 24, Nr. 12 (2015): 1784–91. https://doi.org/10.1002/pon.3855.</t>
   </si>
   <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haussmann A., Schaffeler N., Hautzinger M., Weyel B., Eigentler T., Zipfel S., und Teufel M. „Religious/Spiritual Needs and Psychosocial Burden of Melanoma Patients“. PPmP Psychotherapie Psychosomatik Medizinische Psychologie, Religiose/spirituelle Bedurfnisse und psychosoziale Belastung von Patienten mit malignem Melanom, 67, Nr. 9–10 (2017): 413–19. https://doi.org/10.1055/s-0043-101373.</t>
   </si>
   <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicht berichtet</t>
+  </si>
+  <si>
     <t xml:space="preserve">1#4 timepoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151</t>
   </si>
 </sst>
 </file>
@@ -1049,380 +1130,380 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>9.9</v>
+        <v>7.24</v>
       </c>
       <c r="E15" t="n">
-        <v>59.77</v>
+        <v>56.136</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>7.4</v>
+        <v>9.9</v>
       </c>
       <c r="E16" t="n">
-        <v>56.36</v>
+        <v>59.77</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>9.88</v>
+        <v>7.4</v>
       </c>
       <c r="E17" t="n">
-        <v>59.744</v>
+        <v>56.36</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>7.4</v>
+        <v>9.88</v>
       </c>
       <c r="E18" t="n">
-        <v>56.36</v>
+        <v>59.744</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="E19" t="n">
-        <v>66.9</v>
+        <v>56.36</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>9.32</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>59.016</v>
+        <v>66.9</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>14.2</v>
+        <v>9.32</v>
       </c>
       <c r="E21" t="n">
-        <v>64.92</v>
+        <v>59.016</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>14.2</v>
       </c>
       <c r="E22" t="n">
-        <v>54.2</v>
+        <v>64.92</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>8.9</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>58.46</v>
+        <v>54.2</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>5.98</v>
+        <v>8.9</v>
       </c>
       <c r="E24" t="n">
-        <v>54.166</v>
+        <v>58.46</v>
       </c>
       <c r="F24" t="s">
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="n">
-        <v>18.9</v>
+        <v>5.98</v>
       </c>
       <c r="E25" t="n">
-        <v>70.19</v>
+        <v>54.166</v>
       </c>
       <c r="F25" t="s">
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="n">
-        <v>9.21</v>
+        <v>18.9</v>
       </c>
       <c r="E26" t="n">
-        <v>58.873</v>
+        <v>70.19</v>
       </c>
       <c r="F26" t="s">
         <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>13.4</v>
+        <v>9.21</v>
       </c>
       <c r="E27" t="n">
-        <v>63.98</v>
+        <v>58.873</v>
       </c>
       <c r="F27" t="s">
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
-        <v>6.1</v>
+        <v>13.4</v>
       </c>
       <c r="E28" t="n">
-        <v>54.36</v>
+        <v>63.98</v>
       </c>
       <c r="F28" t="s">
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>11.7</v>
+        <v>6.1</v>
       </c>
       <c r="E29" t="n">
-        <v>61.94</v>
+        <v>54.36</v>
       </c>
       <c r="F29" t="s">
         <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="n">
-        <v>4.2</v>
+        <v>11.7</v>
       </c>
       <c r="E30" t="n">
-        <v>50.9</v>
+        <v>61.94</v>
       </c>
       <c r="F30" t="s">
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>5.53</v>
+        <v>4.2</v>
       </c>
       <c r="E31" t="n">
-        <v>53.401</v>
+        <v>50.9</v>
       </c>
       <c r="F31" t="s">
         <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
-        <v>15.8</v>
+        <v>5.53</v>
       </c>
       <c r="E32" t="n">
-        <v>66.68</v>
+        <v>53.401</v>
       </c>
       <c r="F32" t="s">
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1430,188 +1511,188 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E33" t="n">
-        <v>66.9</v>
+        <v>66.68</v>
       </c>
       <c r="F33" t="s">
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="n">
-        <v>3.21</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>48.762</v>
+        <v>66.9</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="n">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="E35" t="n">
-        <v>48.96</v>
+        <v>48.762</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="E36" t="n">
-        <v>55.94</v>
+        <v>48.96</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>10.18</v>
+        <v>7.1</v>
       </c>
       <c r="E37" t="n">
-        <v>60.116</v>
+        <v>55.94</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>62</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>5.83</v>
+        <v>10.18</v>
       </c>
       <c r="E38" t="n">
-        <v>53.911</v>
+        <v>60.116</v>
       </c>
       <c r="F38" t="s">
         <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>62</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="n">
-        <v>7.02</v>
+        <v>5.83</v>
       </c>
       <c r="E39" t="n">
-        <v>55.828</v>
+        <v>53.911</v>
       </c>
       <c r="F39" t="s">
         <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
-        <v>11.5</v>
+        <v>7.02</v>
       </c>
       <c r="E40" t="n">
-        <v>61.7</v>
+        <v>55.828</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="n">
-        <v>6.6</v>
+        <v>11.5</v>
       </c>
       <c r="E41" t="n">
-        <v>55.16</v>
+        <v>61.7</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1637,317 +1718,317 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="n">
-        <v>17.56</v>
+        <v>6.6</v>
       </c>
       <c r="E43" t="n">
-        <v>68.672</v>
+        <v>55.16</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="n">
-        <v>3.5</v>
+        <v>17.56</v>
       </c>
       <c r="E44" t="n">
-        <v>49.4</v>
+        <v>68.672</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>6.82</v>
+        <v>3.5</v>
       </c>
       <c r="E45" t="n">
-        <v>55.512</v>
+        <v>49.4</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="n">
-        <v>5.89</v>
+        <v>6.82</v>
       </c>
       <c r="E46" t="n">
-        <v>54.013</v>
+        <v>55.512</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
-        <v>4.4</v>
+        <v>5.89</v>
       </c>
       <c r="E47" t="n">
-        <v>51.3</v>
+        <v>54.013</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="n">
-        <v>10.55</v>
+        <v>4.4</v>
       </c>
       <c r="E48" t="n">
-        <v>60.56</v>
+        <v>51.3</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="n">
-        <v>9.88</v>
+        <v>10.55</v>
       </c>
       <c r="E49" t="n">
-        <v>59.744</v>
+        <v>60.56</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="n">
-        <v>14.77</v>
+        <v>9.88</v>
       </c>
       <c r="E50" t="n">
-        <v>65.547</v>
+        <v>59.744</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
-        <v>8.79</v>
+        <v>14.77</v>
       </c>
       <c r="E51" t="n">
-        <v>58.306</v>
+        <v>65.547</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="n">
-        <v>12.44</v>
+        <v>8.79</v>
       </c>
       <c r="E52" t="n">
-        <v>62.828</v>
+        <v>58.306</v>
       </c>
       <c r="F52" t="s">
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="n">
-        <v>9.69</v>
+        <v>12.44</v>
       </c>
       <c r="E53" t="n">
-        <v>59.497</v>
+        <v>62.828</v>
       </c>
       <c r="F53" t="s">
         <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="n">
-        <v>5.18</v>
+        <v>9.69</v>
       </c>
       <c r="E54" t="n">
-        <v>52.806</v>
+        <v>59.497</v>
       </c>
       <c r="F54" t="s">
         <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="n">
-        <v>9.88</v>
+        <v>5.18</v>
       </c>
       <c r="E55" t="n">
-        <v>59.744</v>
+        <v>52.806</v>
       </c>
       <c r="F55" t="s">
         <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
-        <v>1.29</v>
+        <v>9.88</v>
       </c>
       <c r="E56" t="n">
-        <v>43.628</v>
+        <v>59.744</v>
       </c>
       <c r="F56" t="s">
         <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="n">
-        <v>9.75</v>
+        <v>1.29</v>
       </c>
       <c r="E57" t="n">
-        <v>59.575</v>
+        <v>43.628</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
@@ -1955,20 +2036,20 @@
         <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="n">
-        <v>9.61</v>
+        <v>9.75</v>
       </c>
       <c r="E58" t="n">
-        <v>59.393</v>
+        <v>59.575</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
@@ -1976,20 +2057,20 @@
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="n">
-        <v>9.66</v>
+        <v>9.61</v>
       </c>
       <c r="E59" t="n">
-        <v>59.458</v>
+        <v>59.393</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
@@ -1997,20 +2078,20 @@
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="n">
-        <v>9.3</v>
+        <v>9.66</v>
       </c>
       <c r="E60" t="n">
-        <v>58.99</v>
+        <v>59.458</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
@@ -2018,20 +2099,20 @@
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="n">
-        <v>8.69</v>
+        <v>9.3</v>
       </c>
       <c r="E61" t="n">
-        <v>58.166</v>
+        <v>58.99</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
@@ -2039,20 +2120,20 @@
         <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="n">
-        <v>9.47</v>
+        <v>8.69</v>
       </c>
       <c r="E62" t="n">
-        <v>59.211</v>
+        <v>58.166</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
@@ -2060,60 +2141,60 @@
         <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="n">
-        <v>9.87</v>
+        <v>9.47</v>
       </c>
       <c r="E63" t="n">
-        <v>59.731</v>
+        <v>59.211</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63"/>
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="n">
-        <v>9.24</v>
+        <v>9.87</v>
       </c>
       <c r="E64" t="n">
-        <v>58.912</v>
+        <v>59.731</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" t="s">
-        <v>99</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="n">
-        <v>9.27</v>
+        <v>9.24</v>
       </c>
       <c r="E65" t="n">
-        <v>58.951</v>
+        <v>58.912</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
@@ -2121,20 +2202,20 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="n">
-        <v>9.31</v>
+        <v>9.27</v>
       </c>
       <c r="E66" t="n">
-        <v>59.003</v>
+        <v>58.951</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
@@ -2142,7 +2223,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="n">
@@ -2152,10 +2233,10 @@
         <v>59.003</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
@@ -2163,125 +2244,125 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="n">
-        <v>8.32</v>
+        <v>9.31</v>
       </c>
       <c r="E68" t="n">
-        <v>57.648</v>
+        <v>59.003</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>8.32</v>
       </c>
       <c r="E69" t="n">
-        <v>54.2</v>
+        <v>57.648</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="n">
-        <v>6.37</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>54.792</v>
+        <v>54.2</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="n">
-        <v>6.15</v>
+        <v>6.37</v>
       </c>
       <c r="E71" t="n">
-        <v>54.44</v>
+        <v>54.792</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
-        <v>6.4</v>
+        <v>6.15</v>
       </c>
       <c r="E72" t="n">
-        <v>54.84</v>
+        <v>54.44</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E73" t="n">
-        <v>55.16</v>
+        <v>54.84</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
@@ -2307,62 +2388,66 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="E75" t="n">
-        <v>43.66</v>
+        <v>55.16</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="E76" t="n">
-        <v>63.5</v>
+        <v>43.66</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
       </c>
-      <c r="G76"/>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="n">
-        <v>6.36</v>
+        <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>54.776</v>
+        <v>63.5</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
       </c>
-      <c r="G77"/>
+      <c r="G77" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -2373,397 +2458,437 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="n">
-        <v>8.52</v>
+        <v>6.36</v>
       </c>
       <c r="E78" t="n">
-        <v>57.928</v>
+        <v>54.776</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
       </c>
-      <c r="G78"/>
+      <c r="G78" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="n">
-        <v>5.5</v>
+        <v>8.52</v>
       </c>
       <c r="E79" t="n">
-        <v>53.35</v>
+        <v>57.928</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
       </c>
-      <c r="G79"/>
+      <c r="G79" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="n">
-        <v>6.44</v>
+        <v>5.5</v>
       </c>
       <c r="E80" t="n">
-        <v>54.904</v>
+        <v>53.35</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
       </c>
-      <c r="G80"/>
+      <c r="G80" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="n">
-        <v>4.91</v>
+        <v>6.44</v>
       </c>
       <c r="E81" t="n">
-        <v>52.32</v>
+        <v>54.904</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
       </c>
-      <c r="G81"/>
+      <c r="G81" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="n">
-        <v>4.28</v>
+        <v>4.91</v>
       </c>
       <c r="E82" t="n">
-        <v>51.06</v>
+        <v>52.32</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
       </c>
-      <c r="G82"/>
+      <c r="G82" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="n">
-        <v>9.7</v>
+        <v>4.28</v>
       </c>
       <c r="E83" t="n">
-        <v>59.51</v>
+        <v>51.06</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
-      <c r="G83"/>
+      <c r="G83" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="n">
-        <v>11.4</v>
+        <v>9.7</v>
       </c>
       <c r="E84" t="n">
-        <v>61.58</v>
+        <v>59.51</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
       </c>
-      <c r="G84"/>
+      <c r="G84" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="n">
-        <v>7.24</v>
+        <v>11.4</v>
       </c>
       <c r="E85" t="n">
-        <v>56.136</v>
+        <v>61.58</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="n">
-        <v>13.4</v>
+        <v>7.24</v>
       </c>
       <c r="E86" t="n">
-        <v>63.98</v>
+        <v>56.136</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
       </c>
-      <c r="G86"/>
+      <c r="G86" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="n">
-        <v>10.75</v>
+        <v>7.24</v>
       </c>
       <c r="E87" t="n">
-        <v>60.8</v>
+        <v>56.136</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
       </c>
-      <c r="G87"/>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="n">
-        <v>9.61</v>
+        <v>13.4</v>
       </c>
       <c r="E88" t="n">
-        <v>59.393</v>
+        <v>63.98</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
       </c>
-      <c r="G88"/>
+      <c r="G88" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="n">
-        <v>3.6</v>
+        <v>10.75</v>
       </c>
       <c r="E89" t="n">
-        <v>49.62</v>
+        <v>60.8</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
       </c>
-      <c r="G89"/>
+      <c r="G89" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="n">
-        <v>6.1</v>
+        <v>9.61</v>
       </c>
       <c r="E90" t="n">
-        <v>54.36</v>
+        <v>59.393</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
       </c>
-      <c r="G90"/>
+      <c r="G90" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="n">
-        <v>6.25</v>
+        <v>3.6</v>
       </c>
       <c r="E91" t="n">
-        <v>54.6</v>
+        <v>49.62</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
       </c>
-      <c r="G91"/>
+      <c r="G91" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="E92" t="n">
-        <v>57.06</v>
+        <v>54.36</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
       </c>
-      <c r="G92"/>
+      <c r="G92" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="n">
-        <v>1.4</v>
+        <v>6.25</v>
       </c>
       <c r="E93" t="n">
-        <v>43.98</v>
+        <v>54.6</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
       </c>
-      <c r="G93"/>
+      <c r="G93" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="n">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="E94" t="n">
-        <v>41.64</v>
+        <v>57.06</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
       </c>
-      <c r="G94"/>
+      <c r="G94" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="E95" t="n">
-        <v>64.7</v>
+        <v>43.98</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
-      </c>
-      <c r="G95"/>
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="n">
-        <v>5.64</v>
+        <v>0.8</v>
       </c>
       <c r="E96" t="n">
-        <v>53.588</v>
+        <v>41.64</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
-      </c>
-      <c r="G96"/>
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
         <v>49</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E97" t="n">
-        <v>58.6</v>
+        <v>64.7</v>
       </c>
       <c r="F97" t="s">
         <v>50</v>
       </c>
-      <c r="G97"/>
+      <c r="G97" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
         <v>49</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="n">
-        <v>9.1</v>
+        <v>5.64</v>
       </c>
       <c r="E98" t="n">
-        <v>58.73</v>
+        <v>53.588</v>
       </c>
       <c r="F98" t="s">
         <v>50</v>
       </c>
-      <c r="G98"/>
+      <c r="G98" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2774,300 +2899,374 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
-        <v>52.84</v>
+        <v>58.6</v>
       </c>
       <c r="F99" t="s">
         <v>50</v>
       </c>
-      <c r="G99"/>
+      <c r="G99" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
         <v>49</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="n">
-        <v>14.84</v>
+        <v>9.1</v>
       </c>
       <c r="E100" t="n">
-        <v>65.624</v>
+        <v>58.73</v>
       </c>
       <c r="F100" t="s">
         <v>50</v>
       </c>
-      <c r="G100"/>
+      <c r="G100" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
         <v>49</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="E101" t="n">
-        <v>54.03</v>
+        <v>52.84</v>
       </c>
       <c r="F101" t="s">
         <v>50</v>
       </c>
-      <c r="G101"/>
+      <c r="G101" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
         <v>49</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="n">
-        <v>2.4</v>
+        <v>14.84</v>
       </c>
       <c r="E102" t="n">
-        <v>46.86</v>
+        <v>65.624</v>
       </c>
       <c r="F102" t="s">
         <v>50</v>
       </c>
-      <c r="G102"/>
+      <c r="G102" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
         <v>49</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="n">
-        <v>2.2</v>
+        <v>5.9</v>
       </c>
       <c r="E103" t="n">
-        <v>46.38</v>
+        <v>54.03</v>
       </c>
       <c r="F103" t="s">
         <v>50</v>
       </c>
-      <c r="G103"/>
+      <c r="G103" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="n">
-        <v>11.33</v>
+        <v>2.4</v>
       </c>
       <c r="E104" t="n">
-        <v>61.496</v>
+        <v>46.86</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
-      </c>
-      <c r="G104"/>
+        <v>50</v>
+      </c>
+      <c r="G104" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="E105" t="n">
-        <v>54.84</v>
+        <v>46.38</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105"/>
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="n">
-        <v>5.04</v>
+        <v>11.33</v>
       </c>
       <c r="E106" t="n">
-        <v>52.568</v>
+        <v>61.496</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106"/>
+        <v>90</v>
+      </c>
+      <c r="G106" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
         <v>61</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="n">
-        <v>6.44</v>
+        <v>6.4</v>
       </c>
       <c r="E107" t="n">
-        <v>54.904</v>
+        <v>54.84</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
       </c>
-      <c r="G107"/>
+      <c r="G107" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
         <v>61</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="n">
-        <v>3.3</v>
+        <v>5.04</v>
       </c>
       <c r="E108" t="n">
-        <v>48.96</v>
+        <v>52.568</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
       </c>
-      <c r="G108"/>
+      <c r="G108" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="n">
-        <v>8.75</v>
+        <v>6.44</v>
       </c>
       <c r="E109" t="n">
-        <v>58.25</v>
+        <v>54.904</v>
       </c>
       <c r="F109" t="s">
-        <v>50</v>
-      </c>
-      <c r="G109"/>
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="E110" t="n">
-        <v>54.84</v>
+        <v>48.96</v>
       </c>
       <c r="F110" t="s">
-        <v>50</v>
-      </c>
-      <c r="G110"/>
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C111"/>
       <c r="D111" t="n">
-        <v>7.24</v>
+        <v>8.75</v>
       </c>
       <c r="E111" t="n">
-        <v>56.136</v>
+        <v>58.25</v>
       </c>
       <c r="F111" t="s">
-        <v>90</v>
-      </c>
-      <c r="G111"/>
+        <v>50</v>
+      </c>
+      <c r="G111" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>6.11</v>
+        <v>6.4</v>
       </c>
       <c r="E112" t="n">
-        <v>54.376</v>
+        <v>54.84</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112"/>
+        <v>50</v>
+      </c>
+      <c r="G112" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C113"/>
       <c r="D113" t="n">
-        <v>6.69</v>
+        <v>7.24</v>
       </c>
       <c r="E113" t="n">
-        <v>55.304</v>
+        <v>56.136</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113"/>
+        <v>90</v>
+      </c>
+      <c r="G113" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C114"/>
       <c r="D114" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E114" t="n">
+        <v>54.376</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E115" t="n">
+        <v>55.304</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116" t="n">
         <v>6.05</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E116" t="n">
         <v>54.28</v>
       </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114"/>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
